--- a/img/dis.xlsx
+++ b/img/dis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>MRT Technology Bldg. Sta.</t>
   </si>
@@ -95,43 +95,34 @@
     <t>26</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>9</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -589,37 +580,37 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
       <c r="P3" t="s">
         <v>35</v>

--- a/img/dis.xlsx
+++ b/img/dis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>MRT Technology Bldg. Sta.</t>
   </si>
@@ -95,34 +95,43 @@
     <t>26</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
 </sst>
 </file>
@@ -574,46 +583,46 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/img/dis.xlsx
+++ b/img/dis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>MRT Technology Bldg. Sta.</t>
   </si>
@@ -95,43 +95,37 @@
     <t>26</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
 </sst>
 </file>
@@ -583,46 +577,46 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
